--- a/trunk/regnskaber/Madordning.xlsx
+++ b/trunk/regnskaber/Madordning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Alex</t>
   </si>
@@ -49,19 +49,32 @@
   </si>
   <si>
     <t>Weekly desposit</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>Total amount pr. person</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,8 +97,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,18 +395,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:K23"/>
+  <dimension ref="B4:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="2:11">
+      <c r="B4" s="1"/>
+    </row>
     <row r="5" spans="2:11">
       <c r="B5" t="s">
         <v>7</v>
@@ -434,7 +453,8 @@
       <c r="J6" t="s">
         <v>8</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
+        <f ca="1">INT((K8-DATE(YEAR(K8-WEEKDAY(K8-1)+4),1,3)+WEEKDAY(DATE(YEAR(K8-WEEKDAY(K8-1)+4),1,3))+5)/7)</f>
         <v>37</v>
       </c>
     </row>
@@ -453,11 +473,25 @@
       <c r="B8">
         <v>3</v>
       </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1">
+        <f ca="1">TODAY()</f>
+        <v>40434</v>
+      </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9">
         <v>4</v>
       </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <f ca="1">($K$6-$K$5+1)*$K$7</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10">
@@ -524,32 +558,33 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <f>SUM(C6:C21)-($K$6-$K$5+1)*$K$7</f>
+        <f ca="1">SUM(C6:C21)-$K$9</f>
         <v>245.77999999999997</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:H23" si="0">SUM(D6:D21)-($K$6-$K$5+1)*$K$7</f>
+        <f t="shared" ref="D23:H23" ca="1" si="0">SUM(D6:D21)-$K$9</f>
         <v>-1</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>-40</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>-40</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>-40</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>-40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/regnskaber/Madordning.xlsx
+++ b/trunk/regnskaber/Madordning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Alex</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Total amount pr. person</t>
+  </si>
+  <si>
+    <t>Total desposit</t>
+  </si>
+  <si>
+    <t>Total balance</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
   <dimension ref="B4:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -450,6 +456,15 @@
       <c r="D6">
         <v>39</v>
       </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
       <c r="J6" t="s">
         <v>8</v>
       </c>
@@ -478,7 +493,7 @@
       </c>
       <c r="K8" s="1">
         <f ca="1">TODAY()</f>
-        <v>40434</v>
+        <v>40435</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -497,11 +512,25 @@
       <c r="B10">
         <v>5</v>
       </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <f>SUM(C6:H21)</f>
+        <v>444.78</v>
+      </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11">
         <v>6</v>
       </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <f ca="1">K10-K9*6</f>
+        <v>204.77999999999997</v>
+      </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12">
@@ -567,7 +596,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
@@ -575,11 +604,11 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="0"/>
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="0"/>
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/regnskaber/Madordning.xlsx
+++ b/trunk/regnskaber/Madordning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Alex</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>Total balance</t>
+  </si>
+  <si>
+    <t>Withdraws:</t>
+  </si>
+  <si>
+    <t>Mad</t>
+  </si>
+  <si>
+    <t>Andet</t>
+  </si>
+  <si>
+    <t>Total withdraw</t>
   </si>
 </sst>
 </file>
@@ -401,23 +413,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:K23"/>
+  <dimension ref="B4:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:14">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:14">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -439,14 +454,23 @@
       <c r="H5" t="s">
         <v>4</v>
       </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
         <v>9</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:14">
       <c r="B6">
         <v>1</v>
       </c>
@@ -465,149 +489,207 @@
       <c r="H6">
         <v>40</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>285.77999999999997</v>
+      </c>
+      <c r="M6" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="2">
-        <f ca="1">INT((K8-DATE(YEAR(K8-WEEKDAY(K8-1)+4),1,3)+WEEKDAY(DATE(YEAR(K8-WEEKDAY(K8-1)+4),1,3))+5)/7)</f>
+      <c r="N6" s="2">
+        <f ca="1">INT((N8-DATE(YEAR(N8-WEEKDAY(N8-1)+4),1,3)+WEEKDAY(DATE(YEAR(N8-WEEKDAY(N8-1)+4),1,3))+5)/7)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:14">
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
         <v>10</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:14">
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="1">
+      <c r="N8" s="1">
         <f ca="1">TODAY()</f>
         <v>40435</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:14">
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
         <v>12</v>
       </c>
-      <c r="K9">
-        <f ca="1">($K$6-$K$5+1)*$K$7</f>
+      <c r="N9">
+        <f ca="1">($N$6-$N$5+1)*$N$7</f>
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:14">
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
         <v>13</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <f>SUM(C6:H21)</f>
         <v>444.78</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11">
-        <f ca="1">K10-K9*6</f>
-        <v>204.77999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <f>SUM(J6:K22)</f>
+        <v>285.77999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="2:11">
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12">
+        <f>N10-J6</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="2:11">
+      <c r="I13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="2:11">
+      <c r="I14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
       <c r="B15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:11">
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
       <c r="B16">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="I16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="I17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="I18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="I19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="I20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="I21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23">
-        <f ca="1">SUM(C6:C21)-$K$9</f>
+        <f ca="1">SUM(C6:C21)-$N$9</f>
         <v>245.77999999999997</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:H23" ca="1" si="0">SUM(D6:D21)-$K$9</f>
+        <f ca="1">SUM(D6:D21)-$N$9</f>
         <v>-1</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUM(E6:E21)-$N$9</f>
         <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUM(F6:F21)-$N$9</f>
         <v>-40</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUM(G6:G21)-$N$9</f>
         <v>0</v>
       </c>
       <c r="H23">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUM(H6:H21)-$N$9</f>
         <v>0</v>
       </c>
     </row>

--- a/trunk/regnskaber/Madordning.xlsx
+++ b/trunk/regnskaber/Madordning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Alex</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Total withdraw</t>
+  </si>
+  <si>
+    <t>Anonoumus</t>
   </si>
 </sst>
 </file>
@@ -413,15 +416,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:N23"/>
+  <dimension ref="A4:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -429,12 +433,15 @@
     <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14">
+    <row r="4" spans="1:14">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -470,8 +477,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
-      <c r="B6">
+    <row r="6" spans="1:14">
+      <c r="A6">
         <v>1</v>
       </c>
       <c r="C6">
@@ -503,8 +510,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
-      <c r="B7">
+    <row r="7" spans="1:14">
+      <c r="A7">
         <v>2</v>
       </c>
       <c r="I7">
@@ -517,8 +524,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
-      <c r="B8">
+    <row r="8" spans="1:14">
+      <c r="A8">
         <v>3</v>
       </c>
       <c r="I8">
@@ -532,8 +539,8 @@
         <v>40435</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
-      <c r="B9">
+    <row r="9" spans="1:14">
+      <c r="A9">
         <v>4</v>
       </c>
       <c r="I9">
@@ -547,8 +554,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
-      <c r="B10">
+    <row r="10" spans="1:14">
+      <c r="A10">
         <v>5</v>
       </c>
       <c r="I10">
@@ -558,12 +565,12 @@
         <v>13</v>
       </c>
       <c r="N10">
-        <f>SUM(C6:H21)</f>
+        <f>SUM(B6:H21)</f>
         <v>444.78</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
-      <c r="B11">
+    <row r="11" spans="1:14">
+      <c r="A11">
         <v>6</v>
       </c>
       <c r="I11">
@@ -577,8 +584,8 @@
         <v>285.77999999999997</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
-      <c r="B12">
+    <row r="12" spans="1:14">
+      <c r="A12">
         <v>7</v>
       </c>
       <c r="I12">
@@ -592,104 +599,104 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13">
+    <row r="13" spans="1:14">
+      <c r="A13">
         <v>8</v>
       </c>
       <c r="I13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
-      <c r="B14">
+    <row r="14" spans="1:14">
+      <c r="A14">
         <v>9</v>
       </c>
       <c r="I14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
-      <c r="B15">
+    <row r="15" spans="1:14">
+      <c r="A15">
         <v>10</v>
       </c>
       <c r="I15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16">
+    <row r="16" spans="1:14">
+      <c r="A16">
         <v>11</v>
       </c>
       <c r="I16">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17">
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>12</v>
       </c>
       <c r="I17">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18">
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>13</v>
       </c>
       <c r="I18">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19">
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>14</v>
       </c>
       <c r="I19">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20">
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>15</v>
       </c>
       <c r="I20">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21">
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>16</v>
       </c>
       <c r="I21">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="C23">
-        <f ca="1">SUM(C6:C21)-$N$9</f>
+        <f t="shared" ref="C23:H23" ca="1" si="0">SUM(C6:C21)-$N$9</f>
         <v>245.77999999999997</v>
       </c>
       <c r="D23">
-        <f ca="1">SUM(D6:D21)-$N$9</f>
+        <f t="shared" ca="1" si="0"/>
         <v>-1</v>
       </c>
       <c r="E23">
-        <f ca="1">SUM(E6:E21)-$N$9</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="F23">
-        <f ca="1">SUM(F6:F21)-$N$9</f>
+        <f t="shared" ca="1" si="0"/>
         <v>-40</v>
       </c>
       <c r="G23">
-        <f ca="1">SUM(G6:G21)-$N$9</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H23">
-        <f ca="1">SUM(H6:H21)-$N$9</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/trunk/regnskaber/Madordning.xlsx
+++ b/trunk/regnskaber/Madordning.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A4:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -502,20 +502,32 @@
       <c r="J6">
         <v>285.77999999999997</v>
       </c>
+      <c r="K6">
+        <v>229.9</v>
+      </c>
       <c r="M6" t="s">
         <v>8</v>
       </c>
       <c r="N6" s="2">
         <f ca="1">INT((N8-DATE(YEAR(N8-WEEKDAY(N8-1)+4),1,3)+WEEKDAY(DATE(YEAR(N8-WEEKDAY(N8-1)+4),1,3))+5)/7)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
         <v>2</v>
       </c>
+      <c r="D7">
+        <v>224.05</v>
+      </c>
+      <c r="H7">
+        <v>229.9</v>
+      </c>
       <c r="I7">
         <v>2</v>
+      </c>
+      <c r="J7">
+        <v>224.05</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
@@ -536,7 +548,7 @@
       </c>
       <c r="N8" s="1">
         <f ca="1">TODAY()</f>
-        <v>40435</v>
+        <v>40441</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -551,7 +563,7 @@
       </c>
       <c r="N9">
         <f ca="1">($N$6-$N$5+1)*$N$7</f>
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -566,7 +578,7 @@
       </c>
       <c r="N10">
         <f>SUM(B6:H21)</f>
-        <v>444.78</v>
+        <v>898.7299999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -581,7 +593,7 @@
       </c>
       <c r="N11">
         <f>SUM(J6:K22)</f>
-        <v>285.77999999999997</v>
+        <v>739.73</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -595,8 +607,8 @@
         <v>14</v>
       </c>
       <c r="N12">
-        <f>N10-J6</f>
-        <v>159</v>
+        <f>SUM(J7:K23)</f>
+        <v>224.05</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -677,27 +689,27 @@
       </c>
       <c r="C23">
         <f t="shared" ref="C23:H23" ca="1" si="0">SUM(C6:C21)-$N$9</f>
-        <v>245.77999999999997</v>
+        <v>205.77999999999997</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>183.05</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>-40</v>
+        <v>-80</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>189.89999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/regnskaber/Madordning.xlsx
+++ b/trunk/regnskaber/Madordning.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="20100" windowHeight="11120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -82,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +101,10 @@
       <color rgb="FF3B3B3B"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,7 +136,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -415,22 +424,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A4:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:14">
@@ -520,6 +529,12 @@
       <c r="D7">
         <v>224.05</v>
       </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
       <c r="H7">
         <v>229.9</v>
       </c>
@@ -548,7 +563,7 @@
       </c>
       <c r="N8" s="1">
         <f ca="1">TODAY()</f>
-        <v>40441</v>
+        <v>40442</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -578,7 +593,7 @@
       </c>
       <c r="N10">
         <f>SUM(B6:H21)</f>
-        <v>898.7299999999999</v>
+        <v>978.7299999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -697,7 +712,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
@@ -705,7 +720,7 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="0"/>
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="0"/>
@@ -713,31 +728,46 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/trunk/regnskaber/Madordning.xlsx
+++ b/trunk/regnskaber/Madordning.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="20100" windowHeight="11120"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -87,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,10 +96,6 @@
       <color rgb="FF3B3B3B"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,7 +127,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -424,22 +415,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:14">
@@ -622,8 +613,8 @@
         <v>14</v>
       </c>
       <c r="N12">
-        <f>SUM(J7:K23)</f>
-        <v>224.05</v>
+        <f>N10-N11</f>
+        <v>238.99999999999989</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -728,46 +719,31 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>